--- a/Clase de NIvelacion asistencia 1ro y 2do.xlsx
+++ b/Clase de NIvelacion asistencia 1ro y 2do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calificaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F06C93-EDB3-4862-A0FA-B7FFE722D1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18253A2-9689-4674-A09F-B702E8ECD450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>CURSO</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>FECHA ENTREGA: 14/9/2021</t>
+  </si>
+  <si>
+    <t>No asistio a clases de nivelacion</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -618,9 +621,6 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -636,9 +636,6 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -647,24 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -682,9 +661,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,6 +674,24 @@
     <xf numFmtId="22" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,6 +708,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,15 +744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2026920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>318770</xdr:rowOff>
+      <xdr:colOff>1938020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>372110</xdr:colOff>
+      <xdr:colOff>257810</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>244039</xdr:rowOff>
+      <xdr:rowOff>428189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -763,8 +769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2506980" y="8182610"/>
-          <a:ext cx="1377950" cy="405329"/>
+          <a:off x="2541270" y="8084820"/>
+          <a:ext cx="1355090" cy="401519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1298,21 +1304,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" customWidth="1"/>
-    <col min="6" max="10" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1320,322 +1326,350 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="38">
+    <row r="7" spans="1:6" s="20" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="29">
         <v>44448.770833333336</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="30">
         <v>44454.520833333336</v>
       </c>
-      <c r="E7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="44" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="44" t="s">
+        <v>17</v>
+      </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="44" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-    </row>
-    <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="5:5" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="5:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="5:5" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="5:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4"/>
     </row>
   </sheetData>
@@ -1660,7 +1694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1672,7 +1706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
